--- a/data/config/schedule.xlsx
+++ b/data/config/schedule.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\myself\4NumStudio\data\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4NumResearch\data\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379DC67D-094E-4462-900F-0D4F7B0FC3A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19884" windowHeight="7272"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
+    <sheet name="API" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>bigint</t>
   </si>
@@ -42,17 +44,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>stockClass</t>
-  </si>
-  <si>
     <t>tse / otc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stockId*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -67,9 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lastModified</t>
-  </si>
-  <si>
     <t>initial</t>
   </si>
   <si>
@@ -241,13 +233,180 @@
   <si>
     <t>ma_60</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_Id*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_modified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over_400_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over_400_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over_400_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_400_600_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_600_800_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_800_1000_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over_1000_people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over_1000_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均張數/人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInfoController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrategyController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrawlService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInfoService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExportService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrawlServiceImpl_Wearn
+CrawlServiceImpl_Norway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monthly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quarterly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrategyService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Error()
+Debug()
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GetDaily()
+GetWeekly()
+GetMonthly()
+GetQuarterly()
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">All Repository
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">All Service
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileOperation</t>
+  </si>
+  <si>
+    <t>Log</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,8 +435,16 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +568,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -404,29 +601,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,371 +895,408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="N8:P15"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:16">
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>43</v>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="N5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="5"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="F5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="J5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="N5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="6" t="s">
-        <v>7</v>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>15</v>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="6" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="6" t="s">
-        <v>10</v>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>22</v>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="6" t="s">
-        <v>12</v>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
+      <c r="D11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="F12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="F14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="J14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="J16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="F12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="s">
+    <row r="17" spans="6:12">
+      <c r="F17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="J17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12">
+      <c r="F18" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="F13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="F14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="F15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="F16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="F18" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8">
-      <c r="F19" s="6" t="s">
-        <v>34</v>
+      <c r="H18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12">
+      <c r="F19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="F20" s="6"/>
+      <c r="H19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12">
+      <c r="F20" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="F21" s="8"/>
-      <c r="G21" s="2" t="s">
+      <c r="H20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12">
+      <c r="F21" s="3"/>
+      <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>41</v>
+      <c r="H21" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12">
+      <c r="F22" s="5"/>
+      <c r="G22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1085,4 +1310,164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FAFB2-8A57-4D6E-94B7-92873BF37F46}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="85">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="51">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A25:D25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/config/schedule.xlsx
+++ b/data/config/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4NumResearch\data\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379DC67D-094E-4462-900F-0D4F7B0FC3A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAC9036-DA54-458B-83E6-E0AC5F586214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>bigint</t>
   </si>
@@ -401,12 +401,36 @@
   <si>
     <t>Log</t>
   </si>
+  <si>
+    <t>QuarterlyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -440,6 +464,15 @@
       <color rgb="FF00B0F0"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -558,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +623,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,20 +646,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:P22"/>
+  <dimension ref="B4:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -916,40 +955,49 @@
     <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:20">
       <c r="J4" s="9" t="s">
         <v>39</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="11" t="s">
+      <c r="R4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="F5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="J5" s="11" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="J5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="N5" s="11" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="N5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="3" t="s">
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="R5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="17"/>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -958,17 +1006,20 @@
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="R6" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1005,8 +1056,17 @@
       <c r="P7" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="R7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
@@ -1026,7 +1086,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>2</v>
@@ -1043,8 +1103,14 @@
       <c r="P8" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="R8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1063,17 +1129,26 @@
       <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="R9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:20">
       <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
@@ -1119,7 +1194,7 @@
       <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="14" t="s">
         <v>58</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1129,7 +1204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:20">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:20">
       <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1176,7 +1251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:20">
       <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1194,7 +1269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:20">
       <c r="F15" s="3" t="s">
         <v>51</v>
       </c>
@@ -1212,7 +1287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:20">
       <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
@@ -1238,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="14" t="s">
         <v>64</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1300,11 +1375,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:T5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FAFB2-8A57-4D6E-94B7-92873BF37F46}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1355,7 +1431,7 @@
       <c r="A5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1391,10 +1467,10 @@
       <c r="A13" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1402,7 +1478,7 @@
       <c r="A14" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1456,7 +1532,7 @@
       <c r="A27" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>87</v>
       </c>
     </row>

--- a/data/config/schedule.xlsx
+++ b/data/config/schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4NumResearch\data\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\myself\4NumStudio\data\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAC9036-DA54-458B-83E6-E0AC5F586214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
   <si>
     <t>bigint</t>
   </si>
@@ -425,11 +424,47 @@
     <t>week</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UpdateStockList()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateServiceImpl_StockList.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;BasicInfo&gt; getAllStockInfo()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int updateList()
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String show(String sid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input : 從證交所下載的股票清單檔案
+output : StockList.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input : 
+output : 所有股票基本資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input : stock id
+output : 股票訊息組合字串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -591,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,10 +666,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,10 +684,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,28 +981,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:20">
@@ -997,7 +1044,7 @@
       <c r="T5" s="17"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1006,18 +1053,26 @@
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="4"/>
+      <c r="N6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="O6" s="1"/>
+      <c r="P6" s="4"/>
+      <c r="R6" s="14" t="s">
         <v>65</v>
       </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="4"/>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="3" t="s">
@@ -1129,13 +1184,13 @@
       <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="19" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="20" t="s">
         <v>68</v>
       </c>
       <c r="R9" s="11" t="s">
@@ -1194,7 +1249,7 @@
       <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1313,7 +1368,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="21" t="s">
         <v>64</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1389,22 +1444,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1FAFB2-8A57-4D6E-94B7-92873BF37F46}">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
         <v>72</v>
       </c>
@@ -1412,22 +1468,22 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34">
+    <row r="5" spans="1:5" ht="32.4">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1435,7 +1491,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="18" t="s">
         <v>73</v>
       </c>
@@ -1443,107 +1499,154 @@
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" ht="32.4">
+      <c r="A9" s="22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="B9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32.4">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32.4">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="85">
-      <c r="A13" t="s">
+    <row r="17" spans="1:4" ht="81">
+      <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34">
-      <c r="A14" t="s">
+    <row r="18" spans="1:4" ht="32.4">
+      <c r="A18" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="18" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="51">
-      <c r="A27" t="s">
+    <row r="31" spans="1:4" ht="48.6">
+      <c r="A31" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/config/schedule.xlsx
+++ b/data/config/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>bigint</t>
   </si>
@@ -421,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>week</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UpdateStockList()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,6 +454,14 @@
   <si>
     <t>input : stock id
 output : 股票訊息組合字串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initDb()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initDbBySid(String sid)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,6 +676,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -684,23 +703,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:T22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1017,31 +1021,31 @@
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="F5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="J5" s="15" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="J5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="N5" s="15" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="N5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="R5" s="15" t="s">
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="R5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="14" t="s">
@@ -1141,7 +1145,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>2</v>
@@ -1184,13 +1188,13 @@
       <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="15" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="16" t="s">
         <v>68</v>
       </c>
       <c r="R9" s="11" t="s">
@@ -1368,7 +1372,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="17" t="s">
         <v>64</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1445,28 +1449,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.77734375" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -1492,146 +1496,160 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:5" ht="32.4">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32.4">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E10" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32.4">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="32.4">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32.4">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="24"/>
+      <c r="B12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="81">
-      <c r="A17" t="s">
+    <row r="19" spans="1:4" ht="81">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32.4">
-      <c r="A18" t="s">
+    <row r="20" spans="1:4" ht="32.4">
+      <c r="A20" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="18" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="18" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="48.6">
-      <c r="A31" t="s">
+    <row r="33" spans="1:2" ht="48.6">
+      <c r="A33" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B33" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1639,8 +1657,8 @@
   <mergeCells count="7">
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A9:A12"/>

--- a/data/config/schedule.xlsx
+++ b/data/config/schedule.xlsx
@@ -989,7 +989,7 @@
   <dimension ref="B4:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="J7" sqref="J7:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/data/config/schedule.xlsx
+++ b/data/config/schedule.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\myself\4NumStudio\data\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4NumResearch\data\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DEA8FC-8F3B-48CE-B2F5-B6A23C2F9E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
     <sheet name="API" sheetId="3" r:id="rId2"/>
+    <sheet name="Architecture" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
   <si>
     <t>bigint</t>
   </si>
@@ -464,11 +466,66 @@
     <t>initDbBySid(String sid)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>營收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income_last_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年營收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoy</t>
+  </si>
+  <si>
+    <t>年增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>累計營收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accurate_last_year</t>
+  </si>
+  <si>
+    <t>去年累計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accurate_yoy</t>
+  </si>
+  <si>
+    <t>累計年增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -630,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +747,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -985,28 +1045,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:20">
@@ -1021,31 +1081,31 @@
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="F5" s="20" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="F5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="J5" s="20" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="J5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
-      <c r="N5" s="20" t="s">
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="N5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-      <c r="R5" s="20" t="s">
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="R5" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="S5" s="21"/>
-      <c r="T5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="14" t="s">
@@ -1197,6 +1257,15 @@
       <c r="L9" s="16" t="s">
         <v>68</v>
       </c>
+      <c r="N9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="R9" s="11" t="s">
         <v>97</v>
       </c>
@@ -1235,6 +1304,15 @@
       <c r="L10" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="N10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="3" t="s">
@@ -1262,6 +1340,15 @@
       <c r="L11" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="N11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="5" t="s">
@@ -1289,6 +1376,15 @@
       <c r="L12" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="N12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="13" spans="2:20">
       <c r="F13" s="3" t="s">
@@ -1309,6 +1405,15 @@
       <c r="L13" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="N13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="2:20">
       <c r="F14" s="3" t="s">
@@ -1327,6 +1432,15 @@
       <c r="L14" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="N14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="2:20">
       <c r="F15" s="3" t="s">
@@ -1345,6 +1459,15 @@
       <c r="L15" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="N15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="16" spans="2:20">
       <c r="F16" s="3" t="s">
@@ -1363,8 +1486,9 @@
       <c r="L16" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="6:12">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="6:15">
       <c r="F17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1381,8 +1505,9 @@
       <c r="L17" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="6:12">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="6:15">
       <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1393,7 +1518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="6:12">
+    <row r="19" spans="6:15">
       <c r="F19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1404,7 +1529,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="6:12">
+    <row r="20" spans="6:15">
       <c r="F20" s="3" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="6:12">
+    <row r="21" spans="6:15">
       <c r="F21" s="3"/>
       <c r="G21" s="1" t="s">
         <v>0</v>
@@ -1424,7 +1549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="6:12">
+    <row r="22" spans="6:15">
       <c r="F22" s="5"/>
       <c r="G22" s="2" t="s">
         <v>0</v>
@@ -1448,29 +1573,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -1487,7 +1612,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32.4">
+    <row r="5" spans="1:5" ht="34">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1496,21 +1621,21 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" ht="32.4">
-      <c r="A9" s="24" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" ht="34">
+      <c r="A9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -1520,10 +1645,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32.4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+    <row r="10" spans="1:5" ht="34">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" t="s">
         <v>101</v>
       </c>
@@ -1531,10 +1656,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32.4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+    <row r="11" spans="1:5" ht="34">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" t="s">
         <v>103</v>
       </c>
@@ -1543,7 +1668,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="18" t="s">
         <v>108</v>
       </c>
@@ -1580,7 +1705,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="81">
+    <row r="19" spans="1:4" ht="85">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -1591,7 +1716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32.4">
+    <row r="20" spans="1:4" ht="34">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -1600,12 +1725,12 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
@@ -1633,19 +1758,19 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="48.6">
+    <row r="33" spans="1:2" ht="51">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -1667,4 +1792,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4482B817-C0D0-43E0-9EF5-C34F895D7FF7}">
+  <dimension ref="E4:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:9">
+      <c r="E4" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9">
+      <c r="E5" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/config/schedule.xlsx
+++ b/data/config/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4NumResearch\data\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DEA8FC-8F3B-48CE-B2F5-B6A23C2F9E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2F4B00-3ACC-41D5-B137-EFAA6843C04A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="126">
   <si>
     <t>bigint</t>
   </si>
@@ -519,6 +519,14 @@
   </si>
   <si>
     <t>累計年增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分類列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1416,6 +1424,11 @@
       </c>
     </row>
     <row r="14" spans="2:20">
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
       <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1443,6 +1456,15 @@
       </c>
     </row>
     <row r="15" spans="2:20">
+      <c r="B15" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>51</v>
       </c>
@@ -1470,6 +1492,15 @@
       </c>
     </row>
     <row r="16" spans="2:20">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
@@ -1488,7 +1519,10 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="6:15">
+    <row r="17" spans="2:15">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
       <c r="F17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1507,7 +1541,10 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="6:15">
+    <row r="18" spans="2:15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1518,7 +1555,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="6:15">
+    <row r="19" spans="2:15">
+      <c r="B19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
       <c r="F19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1571,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="6:15">
+    <row r="20" spans="2:15">
+      <c r="B20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>31</v>
       </c>
@@ -1540,7 +1591,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
+    <row r="21" spans="2:15">
+      <c r="B21" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="1" t="s">
         <v>0</v>
@@ -1549,7 +1609,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="6:15">
+    <row r="22" spans="2:15">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="6"/>
       <c r="F22" s="5"/>
       <c r="G22" s="2" t="s">
         <v>0</v>
@@ -1559,7 +1622,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="J5:L5"/>
